--- a/CIT 225/reverse engineer.xlsx
+++ b/CIT 225/reverse engineer.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savag\Dropbox\PC\Desktop\Spring-2022\CIT 225\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bailey\Desktop\Spring-2022\CIT 225\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255601B3-616B-4C59-938D-BFAFFF3B8E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA78DB3-FD55-4ADC-A10F-FC67CC896BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A655D2D6-F6B6-4D38-B612-7D777D6B6479}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A655D2D6-F6B6-4D38-B612-7D777D6B6479}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>title</t>
   </si>
@@ -98,14 +96,45 @@
   </si>
   <si>
     <t>video_id</t>
+  </si>
+  <si>
+    <t>one to many</t>
+  </si>
+  <si>
+    <t>subscription</t>
+  </si>
+  <si>
+    <t>subcription_id</t>
+  </si>
+  <si>
+    <t>acount_id</t>
+  </si>
+  <si>
+    <t>sub_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -139,9 +168,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -157,6 +188,298 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9865F57-7A1D-47DE-12C1-5894252B2358}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="2628900"/>
+          <a:ext cx="3514725" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>12 possible</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> tables:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>videos, account, subscriptions, channels, subscribers, youtube_premium, youtube_tv, youtube_shorts, liked_videos, restricted_videos, private_videos</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3466C530-762C-54CD-5A91-4FCE38E273D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4838700" y="1304925"/>
+          <a:ext cx="485775" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4F86B8D-DCF9-4BA2-8EB4-A605CAFB6A10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5353050" y="1390650"/>
+          <a:ext cx="142875" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9A27261-4851-41FE-A27A-0A287CD0CE36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3476625" y="1685925"/>
+          <a:ext cx="285750" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80E1E2DD-672C-4DF6-ACA3-82688372A891}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3267075" y="1685925"/>
+          <a:ext cx="219075" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D92A7D-78A1-40EE-A9C2-1D0D4226B113}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,36 +793,39 @@
     <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -510,10 +836,13 @@
         <v>19</v>
       </c>
       <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -524,10 +853,13 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -537,8 +869,14 @@
       <c r="G7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -549,7 +887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -560,30 +898,37 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>